--- a/シンプル ガント チャート.xlsx
+++ b/シンプル ガント チャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2D2704-FE3A-4588-B1DA-9E184CC5FE84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E331D8D2-8947-436B-B678-BEE42F3E78CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28980" windowHeight="16215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>週表示:</t>
-  </si>
-  <si>
-    <t>名前</t>
   </si>
   <si>
     <t>進捗状況</t>
@@ -312,6 +309,17 @@
     <rPh sb="0" eb="2">
       <t>ケツゴウ</t>
     </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>松岡</t>
+    <rPh sb="0" eb="2">
+      <t>マツオカ</t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>松岡</t>
     <phoneticPr fontId="26"/>
   </si>
 </sst>
@@ -1129,25 +1137,13 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="12" applyFill="1">
@@ -1263,70 +1259,82 @@
     <xf numFmtId="180" fontId="22" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="9" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="25" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="10" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="9" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1999,8 +2007,8 @@
   <dimension ref="A1:BS24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="F1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V16" sqref="V16"/>
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BO14" sqref="BO14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2017,7 +2025,8 @@
     <col min="64" max="64" width="2.88671875" customWidth="1"/>
     <col min="65" max="65" width="3.5546875" customWidth="1"/>
     <col min="66" max="66" width="4.88671875" customWidth="1"/>
-    <col min="67" max="68" width="7.21875"/>
+    <col min="67" max="67" width="5.109375" customWidth="1"/>
+    <col min="68" max="68" width="7.21875"/>
     <col min="69" max="70" width="8.44140625"/>
   </cols>
   <sheetData>
@@ -2028,13 +2037,13 @@
       <c r="B1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="26" t="s">
-        <v>24</v>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="22" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2044,8 +2053,8 @@
       <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="27" t="s">
-        <v>25</v>
+      <c r="I2" s="23" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2055,610 +2064,622 @@
       <c r="B3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66">
+      <c r="D3" s="78"/>
+      <c r="E3" s="76">
         <v>45294</v>
       </c>
-      <c r="F3" s="66"/>
+      <c r="F3" s="76"/>
     </row>
     <row r="4" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="62"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="73">
         <f>I5</f>
         <v>45292</v>
       </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="63">
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="73">
         <f>P5</f>
         <v>45299</v>
       </c>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="63">
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="73">
         <f>W5</f>
         <v>45306</v>
       </c>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64"/>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="64"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="63">
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="75"/>
+      <c r="AD4" s="73">
         <f>AD5</f>
         <v>45313</v>
       </c>
-      <c r="AE4" s="64"/>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="64"/>
-      <c r="AH4" s="64"/>
-      <c r="AI4" s="64"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="63">
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="75"/>
+      <c r="AK4" s="73">
         <f>AK5</f>
         <v>45320</v>
       </c>
-      <c r="AL4" s="64"/>
-      <c r="AM4" s="64"/>
-      <c r="AN4" s="64"/>
-      <c r="AO4" s="64"/>
-      <c r="AP4" s="64"/>
-      <c r="AQ4" s="65"/>
-      <c r="AR4" s="63">
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="74"/>
+      <c r="AN4" s="74"/>
+      <c r="AO4" s="74"/>
+      <c r="AP4" s="74"/>
+      <c r="AQ4" s="75"/>
+      <c r="AR4" s="73">
         <f>AR5</f>
         <v>45327</v>
       </c>
-      <c r="AS4" s="64"/>
-      <c r="AT4" s="64"/>
-      <c r="AU4" s="64"/>
-      <c r="AV4" s="64"/>
-      <c r="AW4" s="64"/>
-      <c r="AX4" s="65"/>
-      <c r="AY4" s="63">
+      <c r="AS4" s="74"/>
+      <c r="AT4" s="74"/>
+      <c r="AU4" s="74"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="75"/>
+      <c r="AY4" s="73">
         <f>AY5</f>
         <v>45334</v>
       </c>
-      <c r="AZ4" s="64"/>
-      <c r="BA4" s="64"/>
-      <c r="BB4" s="64"/>
-      <c r="BC4" s="64"/>
-      <c r="BD4" s="64"/>
-      <c r="BE4" s="65"/>
-      <c r="BF4" s="63">
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="74"/>
+      <c r="BC4" s="74"/>
+      <c r="BD4" s="74"/>
+      <c r="BE4" s="75"/>
+      <c r="BF4" s="73">
         <f>BF5</f>
         <v>45341</v>
       </c>
-      <c r="BG4" s="64"/>
-      <c r="BH4" s="64"/>
-      <c r="BI4" s="64"/>
-      <c r="BJ4" s="64"/>
-      <c r="BK4" s="64"/>
-      <c r="BL4" s="65"/>
-      <c r="BM4" s="63">
+      <c r="BG4" s="74"/>
+      <c r="BH4" s="74"/>
+      <c r="BI4" s="74"/>
+      <c r="BJ4" s="74"/>
+      <c r="BK4" s="74"/>
+      <c r="BL4" s="75"/>
+      <c r="BM4" s="73">
         <f>BM5</f>
         <v>45348</v>
       </c>
-      <c r="BN4" s="64"/>
-      <c r="BO4" s="64"/>
-      <c r="BP4" s="64"/>
-      <c r="BQ4" s="64"/>
-      <c r="BR4" s="64"/>
-      <c r="BS4" s="65"/>
+      <c r="BN4" s="74"/>
+      <c r="BO4" s="74"/>
+      <c r="BP4" s="74"/>
+      <c r="BQ4" s="74"/>
+      <c r="BR4" s="74"/>
+      <c r="BS4" s="75"/>
     </row>
     <row r="5" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="I5" s="58">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="I5" s="54">
         <f>プロジェクトの開始-WEEKDAY(プロジェクトの開始,1)+2+7*(週表示-1)</f>
         <v>45292</v>
       </c>
-      <c r="J5" s="59">
+      <c r="J5" s="55">
         <f>I5+1</f>
         <v>45293</v>
       </c>
-      <c r="K5" s="59">
+      <c r="K5" s="55">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
         <v>45294</v>
       </c>
-      <c r="L5" s="59">
+      <c r="L5" s="55">
         <f t="shared" si="0"/>
         <v>45295</v>
       </c>
-      <c r="M5" s="59">
+      <c r="M5" s="55">
         <f t="shared" si="0"/>
         <v>45296</v>
       </c>
-      <c r="N5" s="59">
+      <c r="N5" s="55">
         <f t="shared" si="0"/>
         <v>45297</v>
       </c>
-      <c r="O5" s="60">
+      <c r="O5" s="56">
         <f t="shared" si="0"/>
         <v>45298</v>
       </c>
-      <c r="P5" s="58">
+      <c r="P5" s="54">
         <f>O5+1</f>
         <v>45299</v>
       </c>
-      <c r="Q5" s="59">
+      <c r="Q5" s="55">
         <f>P5+1</f>
         <v>45300</v>
       </c>
-      <c r="R5" s="59">
+      <c r="R5" s="55">
         <f t="shared" si="0"/>
         <v>45301</v>
       </c>
-      <c r="S5" s="59">
+      <c r="S5" s="55">
         <f t="shared" si="0"/>
         <v>45302</v>
       </c>
-      <c r="T5" s="59">
+      <c r="T5" s="55">
         <f t="shared" si="0"/>
         <v>45303</v>
       </c>
-      <c r="U5" s="59">
+      <c r="U5" s="55">
         <f t="shared" si="0"/>
         <v>45304</v>
       </c>
-      <c r="V5" s="60">
+      <c r="V5" s="56">
         <f t="shared" si="0"/>
         <v>45305</v>
       </c>
-      <c r="W5" s="58">
+      <c r="W5" s="54">
         <f>V5+1</f>
         <v>45306</v>
       </c>
-      <c r="X5" s="59">
+      <c r="X5" s="55">
         <f>W5+1</f>
         <v>45307</v>
       </c>
-      <c r="Y5" s="59">
+      <c r="Y5" s="55">
         <f t="shared" si="0"/>
         <v>45308</v>
       </c>
-      <c r="Z5" s="59">
+      <c r="Z5" s="55">
         <f t="shared" si="0"/>
         <v>45309</v>
       </c>
-      <c r="AA5" s="59">
+      <c r="AA5" s="55">
         <f t="shared" si="0"/>
         <v>45310</v>
       </c>
-      <c r="AB5" s="59">
+      <c r="AB5" s="55">
         <f t="shared" si="0"/>
         <v>45311</v>
       </c>
-      <c r="AC5" s="60">
+      <c r="AC5" s="56">
         <f t="shared" si="0"/>
         <v>45312</v>
       </c>
-      <c r="AD5" s="58">
+      <c r="AD5" s="54">
         <f>AC5+1</f>
         <v>45313</v>
       </c>
-      <c r="AE5" s="59">
+      <c r="AE5" s="55">
         <f>AD5+1</f>
         <v>45314</v>
       </c>
-      <c r="AF5" s="59">
+      <c r="AF5" s="55">
         <f t="shared" si="0"/>
         <v>45315</v>
       </c>
-      <c r="AG5" s="59">
+      <c r="AG5" s="55">
         <f t="shared" si="0"/>
         <v>45316</v>
       </c>
-      <c r="AH5" s="59">
+      <c r="AH5" s="55">
         <f t="shared" si="0"/>
         <v>45317</v>
       </c>
-      <c r="AI5" s="59">
+      <c r="AI5" s="55">
         <f t="shared" si="0"/>
         <v>45318</v>
       </c>
-      <c r="AJ5" s="60">
+      <c r="AJ5" s="56">
         <f t="shared" si="0"/>
         <v>45319</v>
       </c>
-      <c r="AK5" s="58">
+      <c r="AK5" s="54">
         <f>AJ5+1</f>
         <v>45320</v>
       </c>
-      <c r="AL5" s="59">
+      <c r="AL5" s="55">
         <f>AK5+1</f>
         <v>45321</v>
       </c>
-      <c r="AM5" s="59">
+      <c r="AM5" s="55">
         <f t="shared" si="0"/>
         <v>45322</v>
       </c>
-      <c r="AN5" s="59">
+      <c r="AN5" s="55">
         <f t="shared" si="0"/>
         <v>45323</v>
       </c>
-      <c r="AO5" s="59">
+      <c r="AO5" s="55">
         <f t="shared" si="0"/>
         <v>45324</v>
       </c>
-      <c r="AP5" s="59">
+      <c r="AP5" s="55">
         <f t="shared" si="0"/>
         <v>45325</v>
       </c>
-      <c r="AQ5" s="60">
+      <c r="AQ5" s="56">
         <f t="shared" si="0"/>
         <v>45326</v>
       </c>
-      <c r="AR5" s="58">
+      <c r="AR5" s="54">
         <f>AQ5+1</f>
         <v>45327</v>
       </c>
-      <c r="AS5" s="59">
+      <c r="AS5" s="55">
         <f>AR5+1</f>
         <v>45328</v>
       </c>
-      <c r="AT5" s="59">
+      <c r="AT5" s="55">
         <f t="shared" si="0"/>
         <v>45329</v>
       </c>
-      <c r="AU5" s="59">
+      <c r="AU5" s="55">
         <f t="shared" si="0"/>
         <v>45330</v>
       </c>
-      <c r="AV5" s="59">
+      <c r="AV5" s="55">
         <f t="shared" si="0"/>
         <v>45331</v>
       </c>
-      <c r="AW5" s="59">
+      <c r="AW5" s="55">
         <f t="shared" si="0"/>
         <v>45332</v>
       </c>
-      <c r="AX5" s="60">
+      <c r="AX5" s="56">
         <f t="shared" si="0"/>
         <v>45333</v>
       </c>
-      <c r="AY5" s="58">
+      <c r="AY5" s="54">
         <f>AX5+1</f>
         <v>45334</v>
       </c>
-      <c r="AZ5" s="59">
+      <c r="AZ5" s="55">
         <f>AY5+1</f>
         <v>45335</v>
       </c>
-      <c r="BA5" s="59">
+      <c r="BA5" s="55">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
         <v>45336</v>
       </c>
-      <c r="BB5" s="59">
+      <c r="BB5" s="55">
         <f t="shared" si="1"/>
         <v>45337</v>
       </c>
-      <c r="BC5" s="59">
+      <c r="BC5" s="55">
         <f t="shared" si="1"/>
         <v>45338</v>
       </c>
-      <c r="BD5" s="59">
+      <c r="BD5" s="55">
         <f t="shared" si="1"/>
         <v>45339</v>
       </c>
-      <c r="BE5" s="60">
+      <c r="BE5" s="56">
         <f t="shared" si="1"/>
         <v>45340</v>
       </c>
-      <c r="BF5" s="58">
+      <c r="BF5" s="54">
         <f>BE5+1</f>
         <v>45341</v>
       </c>
-      <c r="BG5" s="59">
+      <c r="BG5" s="55">
         <f>BF5+1</f>
         <v>45342</v>
       </c>
-      <c r="BH5" s="59">
+      <c r="BH5" s="55">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
         <v>45343</v>
       </c>
-      <c r="BI5" s="59">
+      <c r="BI5" s="55">
         <f t="shared" si="2"/>
         <v>45344</v>
       </c>
-      <c r="BJ5" s="59">
+      <c r="BJ5" s="55">
         <f t="shared" si="2"/>
         <v>45345</v>
       </c>
-      <c r="BK5" s="59">
+      <c r="BK5" s="55">
         <f t="shared" si="2"/>
         <v>45346</v>
       </c>
-      <c r="BL5" s="60">
+      <c r="BL5" s="56">
         <f t="shared" si="2"/>
         <v>45347</v>
       </c>
-      <c r="BM5" s="59">
-        <f t="shared" ref="BM5" si="3">BL5+1</f>
+      <c r="BM5" s="55">
+        <f t="shared" ref="BM5:BO5" si="3">BL5+1</f>
         <v>45348</v>
       </c>
-      <c r="BN5" s="60">
+      <c r="BN5" s="56">
         <f t="shared" ref="BN5" si="4">BM5+1</f>
         <v>45349</v>
+      </c>
+      <c r="BO5" s="55">
+        <f t="shared" si="3"/>
+        <v>45350</v>
       </c>
     </row>
     <row r="6" spans="1:71" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="F6" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="30" t="str">
+      <c r="I6" s="26" t="str">
         <f t="shared" ref="I6:AN6" si="5">LEFT(TEXT(I5,"aaa"),1)</f>
         <v>月</v>
       </c>
-      <c r="J6" s="30" t="str">
+      <c r="J6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>火</v>
       </c>
-      <c r="K6" s="30" t="str">
+      <c r="K6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>水</v>
       </c>
-      <c r="L6" s="30" t="str">
+      <c r="L6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>木</v>
       </c>
-      <c r="M6" s="30" t="str">
+      <c r="M6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>金</v>
       </c>
-      <c r="N6" s="30" t="str">
+      <c r="N6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>土</v>
       </c>
-      <c r="O6" s="30" t="str">
+      <c r="O6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>日</v>
       </c>
-      <c r="P6" s="30" t="str">
+      <c r="P6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>月</v>
       </c>
-      <c r="Q6" s="30" t="str">
+      <c r="Q6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>火</v>
       </c>
-      <c r="R6" s="30" t="str">
+      <c r="R6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>水</v>
       </c>
-      <c r="S6" s="30" t="str">
+      <c r="S6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>木</v>
       </c>
-      <c r="T6" s="30" t="str">
+      <c r="T6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>金</v>
       </c>
-      <c r="U6" s="30" t="str">
+      <c r="U6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>土</v>
       </c>
-      <c r="V6" s="30" t="str">
+      <c r="V6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>日</v>
       </c>
-      <c r="W6" s="30" t="str">
+      <c r="W6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>月</v>
       </c>
-      <c r="X6" s="30" t="str">
+      <c r="X6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>火</v>
       </c>
-      <c r="Y6" s="30" t="str">
+      <c r="Y6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>水</v>
       </c>
-      <c r="Z6" s="30" t="str">
+      <c r="Z6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>木</v>
       </c>
-      <c r="AA6" s="30" t="str">
+      <c r="AA6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>金</v>
       </c>
-      <c r="AB6" s="30" t="str">
+      <c r="AB6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>土</v>
       </c>
-      <c r="AC6" s="30" t="str">
+      <c r="AC6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>日</v>
       </c>
-      <c r="AD6" s="30" t="str">
+      <c r="AD6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>月</v>
       </c>
-      <c r="AE6" s="30" t="str">
+      <c r="AE6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>火</v>
       </c>
-      <c r="AF6" s="30" t="str">
+      <c r="AF6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>水</v>
       </c>
-      <c r="AG6" s="30" t="str">
+      <c r="AG6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>木</v>
       </c>
-      <c r="AH6" s="30" t="str">
+      <c r="AH6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>金</v>
       </c>
-      <c r="AI6" s="30" t="str">
+      <c r="AI6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>土</v>
       </c>
-      <c r="AJ6" s="30" t="str">
+      <c r="AJ6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>日</v>
       </c>
-      <c r="AK6" s="30" t="str">
+      <c r="AK6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>月</v>
       </c>
-      <c r="AL6" s="30" t="str">
+      <c r="AL6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>火</v>
       </c>
-      <c r="AM6" s="30" t="str">
+      <c r="AM6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>水</v>
       </c>
-      <c r="AN6" s="30" t="str">
+      <c r="AN6" s="26" t="str">
         <f t="shared" si="5"/>
         <v>木</v>
       </c>
-      <c r="AO6" s="30" t="str">
-        <f t="shared" ref="AO6:BM6" si="6">LEFT(TEXT(AO5,"aaa"),1)</f>
+      <c r="AO6" s="26" t="str">
+        <f t="shared" ref="AO6:BO6" si="6">LEFT(TEXT(AO5,"aaa"),1)</f>
         <v>金</v>
       </c>
-      <c r="AP6" s="30" t="str">
+      <c r="AP6" s="26" t="str">
         <f t="shared" si="6"/>
         <v>土</v>
       </c>
-      <c r="AQ6" s="30" t="str">
+      <c r="AQ6" s="26" t="str">
         <f t="shared" si="6"/>
         <v>日</v>
       </c>
-      <c r="AR6" s="30" t="str">
+      <c r="AR6" s="26" t="str">
         <f t="shared" si="6"/>
         <v>月</v>
       </c>
-      <c r="AS6" s="30" t="str">
+      <c r="AS6" s="26" t="str">
         <f t="shared" si="6"/>
         <v>火</v>
       </c>
-      <c r="AT6" s="30" t="str">
+      <c r="AT6" s="26" t="str">
         <f t="shared" si="6"/>
         <v>水</v>
       </c>
-      <c r="AU6" s="30" t="str">
+      <c r="AU6" s="26" t="str">
         <f t="shared" si="6"/>
         <v>木</v>
       </c>
-      <c r="AV6" s="30" t="str">
+      <c r="AV6" s="26" t="str">
         <f t="shared" si="6"/>
         <v>金</v>
       </c>
-      <c r="AW6" s="30" t="str">
+      <c r="AW6" s="26" t="str">
         <f t="shared" si="6"/>
         <v>土</v>
       </c>
-      <c r="AX6" s="30" t="str">
+      <c r="AX6" s="26" t="str">
         <f t="shared" si="6"/>
         <v>日</v>
       </c>
-      <c r="AY6" s="30" t="str">
+      <c r="AY6" s="26" t="str">
         <f t="shared" si="6"/>
         <v>月</v>
       </c>
-      <c r="AZ6" s="30" t="str">
+      <c r="AZ6" s="26" t="str">
         <f t="shared" si="6"/>
         <v>火</v>
       </c>
-      <c r="BA6" s="30" t="str">
+      <c r="BA6" s="26" t="str">
         <f t="shared" si="6"/>
         <v>水</v>
       </c>
-      <c r="BB6" s="30" t="str">
+      <c r="BB6" s="26" t="str">
         <f t="shared" si="6"/>
         <v>木</v>
       </c>
-      <c r="BC6" s="30" t="str">
+      <c r="BC6" s="26" t="str">
         <f t="shared" si="6"/>
         <v>金</v>
       </c>
-      <c r="BD6" s="30" t="str">
+      <c r="BD6" s="26" t="str">
         <f t="shared" si="6"/>
         <v>土</v>
       </c>
-      <c r="BE6" s="30" t="str">
+      <c r="BE6" s="26" t="str">
         <f t="shared" si="6"/>
         <v>日</v>
       </c>
-      <c r="BF6" s="30" t="str">
+      <c r="BF6" s="26" t="str">
         <f t="shared" si="6"/>
         <v>月</v>
       </c>
-      <c r="BG6" s="30" t="str">
+      <c r="BG6" s="26" t="str">
         <f t="shared" si="6"/>
         <v>火</v>
       </c>
-      <c r="BH6" s="30" t="str">
+      <c r="BH6" s="26" t="str">
         <f t="shared" si="6"/>
         <v>水</v>
       </c>
-      <c r="BI6" s="30" t="str">
+      <c r="BI6" s="26" t="str">
         <f t="shared" si="6"/>
         <v>木</v>
       </c>
-      <c r="BJ6" s="30" t="str">
+      <c r="BJ6" s="26" t="str">
         <f t="shared" si="6"/>
         <v>金</v>
       </c>
-      <c r="BK6" s="30" t="str">
+      <c r="BK6" s="26" t="str">
         <f t="shared" si="6"/>
         <v>土</v>
       </c>
-      <c r="BL6" s="30" t="str">
+      <c r="BL6" s="26" t="str">
         <f t="shared" si="6"/>
         <v>日</v>
       </c>
-      <c r="BM6" s="30" t="str">
+      <c r="BM6" s="26" t="str">
         <f t="shared" si="6"/>
         <v>月</v>
+      </c>
+      <c r="BN6" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>火</v>
+      </c>
+      <c r="BO6" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>水</v>
       </c>
     </row>
     <row r="7" spans="1:71" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2732,15 +2753,15 @@
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>40</v>
+      <c r="B8" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="C8" s="12"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33" t="str">
+      <c r="D8" s="28"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29" t="str">
         <f t="shared" ref="H8:H24" si="7">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
@@ -2805,25 +2826,25 @@
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="34">
+      <c r="B9" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="30">
         <v>0</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="61">
         <f>プロジェクトの開始</f>
         <v>45294</v>
       </c>
-      <c r="F9" s="71">
+      <c r="F9" s="61">
         <f>E9</f>
         <v>45294</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33">
+      <c r="G9" s="29"/>
+      <c r="H9" s="29">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -2888,21 +2909,23 @@
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="34">
+      <c r="B10" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="30">
         <v>0</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="61">
         <v>45294</v>
       </c>
-      <c r="F10" s="71">
+      <c r="F10" s="61">
         <v>45294</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33">
+      <c r="G10" s="29"/>
+      <c r="H10" s="29">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -2967,15 +2990,15 @@
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33" t="str">
+      <c r="B11" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -3038,22 +3061,24 @@
     </row>
     <row r="12" spans="1:71" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="37">
+      <c r="B12" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="33">
         <v>0</v>
       </c>
-      <c r="E12" s="74">
+      <c r="E12" s="64">
         <v>45295</v>
       </c>
-      <c r="F12" s="74">
+      <c r="F12" s="64">
         <f>E12</f>
         <v>45295</v>
       </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33">
+      <c r="G12" s="29"/>
+      <c r="H12" s="29">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -3116,23 +3141,25 @@
     </row>
     <row r="13" spans="1:71" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
-      <c r="B13" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="37">
+      <c r="B13" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="33">
         <v>0</v>
       </c>
-      <c r="E13" s="74">
+      <c r="E13" s="64">
         <f>E12+1</f>
         <v>45296</v>
       </c>
-      <c r="F13" s="74">
+      <c r="F13" s="64">
         <f>E13+3</f>
         <v>45299</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33">
+      <c r="G13" s="29"/>
+      <c r="H13" s="29">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
@@ -3141,8 +3168,8 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -3192,20 +3219,23 @@
       <c r="BJ13" s="4"/>
       <c r="BK13" s="4"/>
       <c r="BL13" s="4"/>
+      <c r="BM13" s="4"/>
+      <c r="BN13" s="4"/>
+      <c r="BO13" s="4"/>
     </row>
     <row r="14" spans="1:71" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33" t="str">
+      <c r="B14" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -3265,25 +3295,30 @@
       <c r="BJ14" s="4"/>
       <c r="BK14" s="4"/>
       <c r="BL14" s="4"/>
+      <c r="BM14" s="4"/>
+      <c r="BN14" s="4"/>
+      <c r="BO14" s="4"/>
     </row>
     <row r="15" spans="1:71" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="40">
+      <c r="B15" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="36">
         <v>0</v>
       </c>
-      <c r="E15" s="77">
+      <c r="E15" s="67">
         <v>45299</v>
       </c>
-      <c r="F15" s="77">
+      <c r="F15" s="67">
         <f>E15+2</f>
         <v>45301</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33">
+      <c r="G15" s="29"/>
+      <c r="H15" s="29">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
@@ -3343,26 +3378,31 @@
       <c r="BJ15" s="4"/>
       <c r="BK15" s="4"/>
       <c r="BL15" s="4"/>
+      <c r="BM15" s="4"/>
+      <c r="BN15" s="4"/>
+      <c r="BO15" s="4"/>
     </row>
     <row r="16" spans="1:71" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="40">
+      <c r="B16" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="36">
         <v>0</v>
       </c>
-      <c r="E16" s="77">
+      <c r="E16" s="67">
         <f>F15</f>
         <v>45301</v>
       </c>
-      <c r="F16" s="77">
+      <c r="F16" s="67">
         <f>E16+5</f>
         <v>45306</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33">
+      <c r="G16" s="29"/>
+      <c r="H16" s="29">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
@@ -3422,20 +3462,23 @@
       <c r="BJ16" s="4"/>
       <c r="BK16" s="4"/>
       <c r="BL16" s="4"/>
+      <c r="BM16" s="4"/>
+      <c r="BN16" s="4"/>
+      <c r="BO16" s="4"/>
     </row>
-    <row r="17" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33" t="str">
+      <c r="B17" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -3495,24 +3538,29 @@
       <c r="BJ17" s="4"/>
       <c r="BK17" s="4"/>
       <c r="BL17" s="4"/>
+      <c r="BM17" s="4"/>
+      <c r="BN17" s="4"/>
+      <c r="BO17" s="4"/>
     </row>
-    <row r="18" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="43">
+      <c r="B18" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="39">
         <v>0</v>
       </c>
-      <c r="E18" s="80">
+      <c r="E18" s="70">
         <v>45306</v>
       </c>
-      <c r="F18" s="82">
+      <c r="F18" s="72">
         <v>45320</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33">
+      <c r="G18" s="29"/>
+      <c r="H18" s="29">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
@@ -3572,24 +3620,29 @@
       <c r="BJ18" s="4"/>
       <c r="BK18" s="4"/>
       <c r="BL18" s="4"/>
+      <c r="BM18" s="4"/>
+      <c r="BN18" s="4"/>
+      <c r="BO18" s="4"/>
     </row>
-    <row r="19" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
-      <c r="B19" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="43">
+      <c r="B19" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="80">
+      <c r="E19" s="70">
         <v>45320</v>
       </c>
-      <c r="F19" s="80">
+      <c r="F19" s="70">
         <v>45327</v>
       </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33">
+      <c r="G19" s="29"/>
+      <c r="H19" s="29">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
@@ -3649,20 +3702,23 @@
       <c r="BJ19" s="4"/>
       <c r="BK19" s="4"/>
       <c r="BL19" s="4"/>
+      <c r="BM19" s="4"/>
+      <c r="BN19" s="4"/>
+      <c r="BO19" s="4"/>
     </row>
-    <row r="20" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33" t="str">
+      <c r="B20" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -3722,24 +3778,29 @@
       <c r="BJ20" s="4"/>
       <c r="BK20" s="4"/>
       <c r="BL20" s="4"/>
+      <c r="BM20" s="4"/>
+      <c r="BN20" s="4"/>
+      <c r="BO20" s="4"/>
     </row>
-    <row r="21" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
-      <c r="B21" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="43">
+      <c r="B21" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="39">
         <v>0</v>
       </c>
-      <c r="E21" s="82">
+      <c r="E21" s="72">
         <v>45327</v>
       </c>
-      <c r="F21" s="80">
+      <c r="F21" s="70">
         <v>45334</v>
       </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33">
+      <c r="G21" s="29"/>
+      <c r="H21" s="29">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
@@ -3799,24 +3860,29 @@
       <c r="BJ21" s="4"/>
       <c r="BK21" s="4"/>
       <c r="BL21" s="4"/>
+      <c r="BM21" s="4"/>
+      <c r="BN21" s="4"/>
+      <c r="BO21" s="4"/>
     </row>
-    <row r="22" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
-      <c r="B22" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="43">
+      <c r="B22" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="39">
         <v>0</v>
       </c>
-      <c r="E22" s="80">
+      <c r="E22" s="70">
         <v>45335</v>
       </c>
-      <c r="F22" s="80">
+      <c r="F22" s="70">
         <v>45337</v>
       </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33">
+      <c r="G22" s="29"/>
+      <c r="H22" s="29">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
@@ -3876,24 +3942,29 @@
       <c r="BJ22" s="4"/>
       <c r="BK22" s="4"/>
       <c r="BL22" s="4"/>
+      <c r="BM22" s="4"/>
+      <c r="BN22" s="4"/>
+      <c r="BO22" s="4"/>
     </row>
-    <row r="23" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
-      <c r="B23" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="43">
+      <c r="B23" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="39">
         <v>0</v>
       </c>
-      <c r="E23" s="80">
+      <c r="E23" s="70">
         <v>45338</v>
       </c>
-      <c r="F23" s="80">
+      <c r="F23" s="70">
         <v>45344</v>
       </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33">
+      <c r="G23" s="29"/>
+      <c r="H23" s="29">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
@@ -3953,24 +4024,29 @@
       <c r="BJ23" s="4"/>
       <c r="BK23" s="4"/>
       <c r="BL23" s="4"/>
+      <c r="BM23" s="4"/>
+      <c r="BN23" s="4"/>
+      <c r="BO23" s="4"/>
     </row>
-    <row r="24" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="43">
+      <c r="C24" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="39">
         <v>0</v>
       </c>
-      <c r="E24" s="80">
+      <c r="E24" s="70">
         <v>45345</v>
       </c>
-      <c r="F24" s="80">
+      <c r="F24" s="70">
         <v>45348</v>
       </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33">
+      <c r="G24" s="29"/>
+      <c r="H24" s="29">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
@@ -4030,9 +4106,17 @@
       <c r="BJ24" s="4"/>
       <c r="BK24" s="4"/>
       <c r="BL24" s="4"/>
+      <c r="BM24" s="4"/>
+      <c r="BN24" s="4"/>
+      <c r="BO24" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BM4:BS4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4040,11 +4124,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="26"/>
   <conditionalFormatting sqref="D7:D19">
@@ -4061,12 +4140,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL19 BM6 BM5:BN5">
+  <conditionalFormatting sqref="I5:BL19 BM13:BO24 BM5:BO6">
     <cfRule type="expression" dxfId="8" priority="41">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL19">
+  <conditionalFormatting sqref="I7:BL19 BM13:BO24">
     <cfRule type="expression" dxfId="7" priority="35">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
@@ -4182,86 +4261,86 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="87" style="44" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="45"/>
+    <col min="1" max="1" width="87" style="40" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:2" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:2" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="42"/>
+    </row>
+    <row r="3" spans="1:2" s="46" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B3" s="45"/>
     </row>
-    <row r="3" spans="1:2" s="50" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="4" spans="1:2" s="48" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="47" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" s="49"/>
-    </row>
-    <row r="4" spans="1:2" s="52" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="51" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
-        <v>27</v>
+      <c r="A5" s="49" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="40" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="48" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="47" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="44" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="52" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="51" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="40" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="44" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+    <row r="11" spans="1:2" s="48" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="47" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="52" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="51" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="40" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="44" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+    <row r="14" spans="1:2" s="48" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="47" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="52" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="51" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
-        <v>36</v>
+      <c r="A15" s="49" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
-        <v>37</v>
+      <c r="A16" s="49" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4282,12 +4361,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4579,29 +4669,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4628,13 +4711,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>